--- a/python-stu/text_sort_no.xlsx
+++ b/python-stu/text_sort_no.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,15 +477,18 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>平均分</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>总分</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -519,20 +522,15 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -556,7 +554,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -566,20 +564,15 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -613,20 +606,15 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -660,20 +648,15 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -707,20 +690,15 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -749,25 +727,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A8" t="n">
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -796,25 +769,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A9" t="n">
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -843,25 +811,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="A10" t="n">
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -895,20 +858,15 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="A11" t="n">
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -942,14 +900,11 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/python-stu/text_sort_no.xlsx
+++ b/python-stu/text_sort_no.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,426 +486,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
